--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFAX\Documents\T-SMARTKET-market\market-canasta-tecnologia\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A97D98-B491-475A-B439-66A0382369E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1416,8 +1405,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,19 +1469,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1534,7 +1515,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1566,27 +1547,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1618,24 +1581,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1811,16 +1756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1875,7 +1818,7 @@
         <v>167</v>
       </c>
       <c r="F2">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="G2">
         <v>29000</v>
@@ -1896,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1931,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1969,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2004,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2039,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2074,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2109,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2147,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2182,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2217,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2255,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2290,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2325,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2363,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2398,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2433,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2468,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2503,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2538,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2576,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2611,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2646,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2681,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2716,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2751,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2786,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2824,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2859,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2894,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2932,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2967,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3002,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3037,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3075,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3110,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3145,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3180,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3218,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3256,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3291,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3326,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3361,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3396,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3434,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3469,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3504,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3539,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3574,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3609,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3644,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3679,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3717,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3752,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3787,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3822,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3857,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3895,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3930,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3965,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4000,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4035,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4073,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4108,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4146,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4181,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4216,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4251,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4286,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4324,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4359,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4394,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4429,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4467,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4502,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4537,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4572,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4607,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4642,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4677,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4712,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4747,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4782,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4817,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4852,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4887,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4922,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4957,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4992,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5027,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5062,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5097,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5135,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5170,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5205,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5243,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5278,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5313,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5348,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5383,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5418,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5453,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5488,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5526,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5561,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5596,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5631,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5666,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5701,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5736,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5771,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5806,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5841,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5876,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5911,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5946,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5981,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6016,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6051,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6089,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6124,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6159,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6194,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6229,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6267,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6302,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6340,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6378,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6416,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6454,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12">
       <c r="A131">
         <v>130</v>
       </c>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -1,15 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFAX\Documents\T-SMARTKET-market\market-canasta-tecnologia\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A97D98-B491-475A-B439-66A0382369E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1405,8 +1416,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1469,11 +1480,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1515,7 +1534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1547,9 +1566,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1581,6 +1618,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1756,14 +1811,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1818,7 +1875,7 @@
         <v>167</v>
       </c>
       <c r="F2">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="G2">
         <v>29000</v>
@@ -1839,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1874,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1912,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1947,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1982,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2017,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2052,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2090,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2125,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2160,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2198,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2233,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2268,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2306,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2341,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2376,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2411,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2446,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2481,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2519,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2554,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2589,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2624,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2659,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2694,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2729,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2767,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2802,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2837,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2875,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2910,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2945,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2980,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3018,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3053,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3088,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3123,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3161,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3199,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3234,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3269,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3304,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3339,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3377,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3412,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3447,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3482,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3517,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3552,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3587,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3622,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3660,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3695,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3730,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3765,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3800,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3838,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3873,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3908,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3943,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3978,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4016,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4051,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4089,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4124,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4159,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4194,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4229,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4267,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4302,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4337,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4372,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4410,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4445,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4480,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4515,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4550,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4585,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4620,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4655,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4690,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4725,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4760,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4795,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4830,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4865,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4900,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4935,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4970,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5005,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5040,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5078,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5113,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5148,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5186,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5221,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5256,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5291,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5326,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5361,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5396,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5431,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5469,7 +5526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5504,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5539,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5574,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5609,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5644,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5679,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5714,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5749,7 +5806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5784,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5819,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5854,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5889,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5924,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5959,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5994,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6032,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6067,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6102,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6137,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6172,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6210,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6245,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6283,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6321,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6359,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6397,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
